--- a/app/src/main/assets/blanks_template.xlsx
+++ b/app/src/main/assets/blanks_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazy\AndroidStudioProjects\ps_inspection\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E80D1-5665-4DE2-B891-A7DCE3C0292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F9BFA-FB54-41C1-9D9E-544C2C3304F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="122">
   <si>
     <t>Дата:</t>
   </si>
@@ -481,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1568,11 +1568,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1772,16 +1785,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,14 +1818,272 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1830,33 +2094,177 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1887,431 +2295,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2636,8 +2648,8 @@
   </sheetPr>
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,67 +2691,67 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="242"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="189"/>
       <c r="L3" s="6"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="109"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
+      <c r="Q3" s="244"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="244"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="245"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="111"/>
-      <c r="C4" s="114" t="s">
+      <c r="B4" s="238"/>
+      <c r="C4" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116" t="s">
+      <c r="D4" s="196"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="249"/>
       <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2751,25 +2763,25 @@
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="119" t="s">
+      <c r="N4" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="121" t="s">
+      <c r="O4" s="250"/>
+      <c r="P4" s="250"/>
+      <c r="Q4" s="250"/>
+      <c r="R4" s="250"/>
+      <c r="S4" s="251"/>
+      <c r="T4" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="122"/>
+      <c r="U4" s="250"/>
+      <c r="V4" s="250"/>
+      <c r="W4" s="250"/>
+      <c r="X4" s="253"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="246"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -2791,33 +2803,33 @@
       <c r="K5" s="19"/>
       <c r="L5" s="20"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="123" t="s">
+      <c r="N5" s="254" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="124"/>
-      <c r="P5" s="127" t="s">
+      <c r="O5" s="255"/>
+      <c r="P5" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="130" t="s">
+      <c r="Q5" s="166"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="127" t="s">
+      <c r="T5" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="128"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="132" t="s">
+      <c r="U5" s="166"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="133"/>
+      <c r="X5" s="259"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="136" t="s">
+      <c r="A6" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="137"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
@@ -2833,8 +2845,8 @@
       <c r="K6" s="28"/>
       <c r="L6" s="29"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="126"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="221"/>
       <c r="P6" s="31" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2856,7 @@
       <c r="R6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="131"/>
+      <c r="S6" s="223"/>
       <c r="T6" s="32" t="s">
         <v>8</v>
       </c>
@@ -2854,14 +2866,14 @@
       <c r="V6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="134"/>
-      <c r="X6" s="135"/>
+      <c r="W6" s="260"/>
+      <c r="X6" s="261"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="139"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="34"/>
@@ -2879,10 +2891,10 @@
       <c r="K7" s="40"/>
       <c r="L7" s="29"/>
       <c r="M7" s="30"/>
-      <c r="N7" s="129" t="s">
+      <c r="N7" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="140"/>
+      <c r="O7" s="232"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="32"/>
@@ -2890,29 +2902,29 @@
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="142"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="233"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+      <c r="J8" s="188"/>
+      <c r="K8" s="189"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="129" t="s">
+      <c r="N8" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="140"/>
+      <c r="O8" s="232"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="32"/>
@@ -2920,37 +2932,37 @@
       <c r="T8" s="32"/>
       <c r="U8" s="32"/>
       <c r="V8" s="32"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="142"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="233"/>
     </row>
     <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="236" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="111" t="s">
+      <c r="C9" s="196"/>
+      <c r="D9" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="114" t="s">
+      <c r="E9" s="238"/>
+      <c r="F9" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="111" t="s">
+      <c r="G9" s="196"/>
+      <c r="H9" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="143"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
       <c r="L9" s="42"/>
       <c r="M9" s="43"/>
-      <c r="N9" s="129" t="s">
+      <c r="N9" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="140"/>
+      <c r="O9" s="232"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
@@ -2958,11 +2970,11 @@
       <c r="T9" s="32"/>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="142"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="233"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
+      <c r="A10" s="237"/>
       <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
@@ -2995,10 +3007,10 @@
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="129" t="s">
+      <c r="N10" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="140"/>
+      <c r="O10" s="232"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
@@ -3006,8 +3018,8 @@
       <c r="T10" s="32"/>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="142"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="233"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
@@ -3025,10 +3037,10 @@
       <c r="K11" s="23"/>
       <c r="L11" s="29"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="129" t="s">
+      <c r="N11" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="140"/>
+      <c r="O11" s="232"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -3036,8 +3048,8 @@
       <c r="T11" s="32"/>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
-      <c r="W11" s="141"/>
-      <c r="X11" s="142"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="233"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
@@ -3055,10 +3067,10 @@
       <c r="K12" s="23"/>
       <c r="L12" s="29"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="129" t="s">
+      <c r="N12" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="140"/>
+      <c r="O12" s="232"/>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
@@ -3066,8 +3078,8 @@
       <c r="T12" s="32"/>
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="142"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="233"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
@@ -3089,10 +3101,10 @@
       <c r="K13" s="23"/>
       <c r="L13" s="29"/>
       <c r="M13" s="30"/>
-      <c r="N13" s="129" t="s">
+      <c r="N13" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="140"/>
+      <c r="O13" s="232"/>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
@@ -3100,8 +3112,8 @@
       <c r="T13" s="32"/>
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="142"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="233"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
@@ -3119,10 +3131,10 @@
       <c r="K14" s="23"/>
       <c r="L14" s="29"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="129" t="s">
+      <c r="N14" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="140"/>
+      <c r="O14" s="232"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
@@ -3130,8 +3142,8 @@
       <c r="T14" s="32"/>
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="142"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="233"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
@@ -3153,10 +3165,10 @@
       <c r="K15" s="23"/>
       <c r="L15" s="29"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="129" t="s">
+      <c r="N15" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="140"/>
+      <c r="O15" s="232"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
@@ -3164,8 +3176,8 @@
       <c r="T15" s="32"/>
       <c r="U15" s="32"/>
       <c r="V15" s="32"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="142"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="233"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
@@ -3185,10 +3197,10 @@
       <c r="K16" s="23"/>
       <c r="L16" s="29"/>
       <c r="M16" s="30"/>
-      <c r="N16" s="144" t="s">
+      <c r="N16" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="145"/>
+      <c r="O16" s="214"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
       <c r="R16" s="46"/>
@@ -3196,8 +3208,8 @@
       <c r="T16" s="46"/>
       <c r="U16" s="46"/>
       <c r="V16" s="46"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="147"/>
+      <c r="W16" s="215"/>
+      <c r="X16" s="216"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
@@ -3217,30 +3229,30 @@
       <c r="K17" s="28"/>
       <c r="L17" s="29"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="148" t="s">
+      <c r="N17" s="217" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="149"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="217"/>
+      <c r="Q17" s="217"/>
+      <c r="R17" s="217"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="217"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="218"/>
     </row>
     <row r="18" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="219"/>
       <c r="H18" s="52" t="s">
         <v>34</v>
       </c>
@@ -3255,29 +3267,29 @@
       </c>
       <c r="L18" s="42"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="152" t="s">
+      <c r="N18" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="153" t="s">
+      <c r="O18" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="P18" s="154" t="s">
+      <c r="P18" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="157" t="s">
+      <c r="Q18" s="225"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="153" t="s">
+      <c r="T18" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="154" t="s">
+      <c r="U18" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="155"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="160" t="s">
+      <c r="V18" s="225"/>
+      <c r="W18" s="229"/>
+      <c r="X18" s="230" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3303,8 +3315,8 @@
       <c r="K19" s="59"/>
       <c r="L19" s="60"/>
       <c r="M19" s="61"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="131"/>
+      <c r="N19" s="221"/>
+      <c r="O19" s="223"/>
       <c r="P19" s="32" t="s">
         <v>8</v>
       </c>
@@ -3314,8 +3326,8 @@
       <c r="R19" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="158"/>
-      <c r="T19" s="131"/>
+      <c r="S19" s="228"/>
+      <c r="T19" s="223"/>
       <c r="U19" s="32" t="s">
         <v>8</v>
       </c>
@@ -3325,7 +3337,7 @@
       <c r="W19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="X19" s="161"/>
+      <c r="X19" s="231"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
@@ -3349,7 +3361,7 @@
       <c r="K20" s="23"/>
       <c r="L20" s="29"/>
       <c r="M20" s="30"/>
-      <c r="N20" s="162" t="s">
+      <c r="N20" s="158" t="s">
         <v>60</v>
       </c>
       <c r="O20" s="32" t="s">
@@ -3358,7 +3370,7 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="65"/>
-      <c r="S20" s="162" t="s">
+      <c r="S20" s="158" t="s">
         <v>62</v>
       </c>
       <c r="T20" s="32" t="s">
@@ -3393,14 +3405,14 @@
       <c r="K21" s="28"/>
       <c r="L21" s="29"/>
       <c r="M21" s="30"/>
-      <c r="N21" s="163"/>
+      <c r="N21" s="186"/>
       <c r="O21" s="46" t="s">
         <v>64</v>
       </c>
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
       <c r="R21" s="67"/>
-      <c r="S21" s="163"/>
+      <c r="S21" s="186"/>
       <c r="T21" s="46" t="s">
         <v>64</v>
       </c>
@@ -3410,86 +3422,86 @@
       <c r="X21" s="68"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="189"/>
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="164" t="s">
+      <c r="N22" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="O22" s="165"/>
-      <c r="P22" s="165"/>
-      <c r="Q22" s="165"/>
-      <c r="R22" s="165"/>
-      <c r="S22" s="165"/>
-      <c r="T22" s="165"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="165"/>
-      <c r="W22" s="165"/>
-      <c r="X22" s="165"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="191"/>
+      <c r="V22" s="191"/>
+      <c r="W22" s="191"/>
+      <c r="X22" s="191"/>
     </row>
     <row r="23" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="114" t="s">
+      <c r="B23" s="193"/>
+      <c r="C23" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="170" t="s">
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="172" t="s">
+      <c r="G23" s="199" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="173"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="114" t="s">
+      <c r="H23" s="200"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="202"/>
       <c r="L23" s="10"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="177" t="s">
+      <c r="N23" s="204" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="178"/>
-      <c r="P23" s="179" t="s">
+      <c r="O23" s="205"/>
+      <c r="P23" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="Q23" s="180"/>
-      <c r="R23" s="180"/>
-      <c r="S23" s="180" t="s">
+      <c r="Q23" s="207"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="T23" s="180"/>
-      <c r="U23" s="180"/>
-      <c r="V23" s="181" t="s">
+      <c r="T23" s="207"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="181"/>
+      <c r="W23" s="208"/>
       <c r="X23" s="69" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="168"/>
-      <c r="B24" s="169"/>
+      <c r="A24" s="194"/>
+      <c r="B24" s="195"/>
       <c r="C24" s="70" t="s">
         <v>8</v>
       </c>
@@ -3499,7 +3511,7 @@
       <c r="E24" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="171"/>
+      <c r="F24" s="198"/>
       <c r="G24" s="71" t="s">
         <v>8</v>
       </c>
@@ -3509,26 +3521,26 @@
       <c r="I24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="203"/>
       <c r="L24" s="10"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="182" t="s">
+      <c r="N24" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="O24" s="183"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="182"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="182"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="182"/>
+      <c r="O24" s="210"/>
+      <c r="P24" s="211"/>
+      <c r="Q24" s="211"/>
+      <c r="R24" s="209"/>
+      <c r="S24" s="212"/>
+      <c r="T24" s="211"/>
+      <c r="U24" s="209"/>
+      <c r="V24" s="212"/>
+      <c r="W24" s="209"/>
       <c r="X24" s="72"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="186" t="s">
+      <c r="A25" s="128" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -3538,35 +3550,35 @@
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="187" t="s">
+      <c r="G25" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="189" t="s">
+      <c r="H25" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="189" t="s">
+      <c r="I25" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="137"/>
-      <c r="K25" s="191"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="138"/>
       <c r="L25" s="6"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="192" t="s">
+      <c r="N25" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="O25" s="193"/>
-      <c r="P25" s="194"/>
-      <c r="Q25" s="194"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="194"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="192"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="169"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="169"/>
+      <c r="U25" s="170"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="170"/>
       <c r="X25" s="65"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="13" t="s">
         <v>76</v>
       </c>
@@ -3574,25 +3586,25 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="191"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="6"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="192" t="s">
+      <c r="N26" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="O26" s="193"/>
-      <c r="P26" s="194"/>
-      <c r="Q26" s="194"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="194"/>
-      <c r="U26" s="192"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="192"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="169"/>
+      <c r="Q26" s="169"/>
+      <c r="R26" s="170"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="169"/>
+      <c r="U26" s="170"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="170"/>
       <c r="X26" s="65"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -3600,11 +3612,11 @@
       <c r="B27" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="75" t="s">
         <v>44</v>
       </c>
@@ -3617,24 +3629,24 @@
       <c r="I27" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="J27" s="196" t="s">
+      <c r="J27" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="197"/>
+      <c r="K27" s="153"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="192" t="s">
+      <c r="N27" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="193"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="192"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="194"/>
-      <c r="U27" s="192"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="192"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="169"/>
+      <c r="Q27" s="169"/>
+      <c r="R27" s="170"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="169"/>
+      <c r="U27" s="170"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="170"/>
       <c r="X27" s="65"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -3651,22 +3663,22 @@
       <c r="G28" s="77"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="191"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="138"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="192" t="s">
+      <c r="N28" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="193"/>
-      <c r="P28" s="194"/>
-      <c r="Q28" s="194"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="194"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="141"/>
-      <c r="W28" s="192"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="169"/>
+      <c r="Q28" s="169"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="169"/>
+      <c r="U28" s="170"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="170"/>
       <c r="X28" s="65"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -3683,22 +3695,22 @@
       <c r="G29" s="77"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="191"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="138"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="192" t="s">
+      <c r="N29" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="193"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="194"/>
-      <c r="R29" s="192"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="194"/>
-      <c r="U29" s="192"/>
-      <c r="V29" s="141"/>
-      <c r="W29" s="192"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="169"/>
+      <c r="Q29" s="169"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="168"/>
+      <c r="T29" s="169"/>
+      <c r="U29" s="170"/>
+      <c r="V29" s="168"/>
+      <c r="W29" s="170"/>
       <c r="X29" s="65"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,11 +3718,11 @@
       <c r="B30" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="190" t="s">
+      <c r="C30" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
       <c r="F30" s="75" t="s">
         <v>44</v>
       </c>
@@ -3723,28 +3735,28 @@
       <c r="I30" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="196" t="s">
+      <c r="J30" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="197"/>
+      <c r="K30" s="153"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="198" t="s">
+      <c r="N30" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="O30" s="199"/>
-      <c r="P30" s="194"/>
-      <c r="Q30" s="194"/>
-      <c r="R30" s="192"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="194"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="141"/>
-      <c r="W30" s="192"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="169"/>
+      <c r="Q30" s="169"/>
+      <c r="R30" s="170"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="169"/>
+      <c r="U30" s="170"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="170"/>
       <c r="X30" s="65"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="200" t="s">
+      <c r="A31" s="129" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -3754,31 +3766,31 @@
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="191"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="138"/>
       <c r="L31" s="6"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="203" t="s">
+      <c r="N31" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="204"/>
-      <c r="P31" s="128" t="s">
+      <c r="O31" s="179"/>
+      <c r="P31" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="194"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="141"/>
-      <c r="W31" s="192"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="168"/>
+      <c r="T31" s="169"/>
+      <c r="U31" s="170"/>
+      <c r="V31" s="168"/>
+      <c r="W31" s="170"/>
       <c r="X31" s="65"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="201"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="13" t="s">
         <v>76</v>
       </c>
@@ -3786,33 +3798,33 @@
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="191"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="138"/>
       <c r="L32" s="6"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="192" t="s">
+      <c r="N32" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="O32" s="193"/>
-      <c r="P32" s="128" t="s">
+      <c r="O32" s="180"/>
+      <c r="P32" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="194"/>
-      <c r="U32" s="192"/>
-      <c r="V32" s="127" t="s">
+      <c r="Q32" s="166"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="170"/>
+      <c r="V32" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="W32" s="129"/>
+      <c r="W32" s="167"/>
       <c r="X32" s="65"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="186" t="s">
+      <c r="A33" s="128" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -3822,33 +3834,33 @@
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="191"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="138"/>
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="205" t="s">
+      <c r="N33" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="O33" s="206"/>
-      <c r="P33" s="128" t="s">
+      <c r="O33" s="165"/>
+      <c r="P33" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="194"/>
-      <c r="U33" s="192"/>
-      <c r="V33" s="127" t="s">
+      <c r="Q33" s="166"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="168"/>
+      <c r="T33" s="169"/>
+      <c r="U33" s="170"/>
+      <c r="V33" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="W33" s="129"/>
+      <c r="W33" s="167"/>
       <c r="X33" s="65"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="186"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="13" t="s">
         <v>76</v>
       </c>
@@ -3856,31 +3868,31 @@
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="191"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="138"/>
       <c r="L34" s="6"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="207" t="s">
+      <c r="N34" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="208"/>
-      <c r="P34" s="128" t="s">
+      <c r="O34" s="173"/>
+      <c r="P34" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="209"/>
-      <c r="T34" s="210"/>
-      <c r="U34" s="211"/>
-      <c r="V34" s="209"/>
-      <c r="W34" s="211"/>
+      <c r="Q34" s="166"/>
+      <c r="R34" s="167"/>
+      <c r="S34" s="174"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="176"/>
+      <c r="V34" s="174"/>
+      <c r="W34" s="176"/>
       <c r="X34" s="81"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="128" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -3890,31 +3902,31 @@
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="191"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="138"/>
       <c r="L35" s="6"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="212" t="s">
+      <c r="N35" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="O35" s="213"/>
-      <c r="P35" s="214" t="s">
+      <c r="O35" s="156"/>
+      <c r="P35" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="Q35" s="214"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="215"/>
-      <c r="T35" s="216"/>
-      <c r="U35" s="217"/>
-      <c r="V35" s="215"/>
-      <c r="W35" s="217"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="158"/>
+      <c r="S35" s="159"/>
+      <c r="T35" s="160"/>
+      <c r="U35" s="161"/>
+      <c r="V35" s="159"/>
+      <c r="W35" s="161"/>
       <c r="X35" s="82"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="186"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="13" t="s">
         <v>76</v>
       </c>
@@ -3922,29 +3934,29 @@
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
-      <c r="K36" s="191"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="138"/>
       <c r="L36" s="6"/>
       <c r="M36" s="7"/>
-      <c r="N36" s="218" t="s">
+      <c r="N36" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="O36" s="219"/>
-      <c r="P36" s="219"/>
-      <c r="Q36" s="219"/>
-      <c r="R36" s="219"/>
-      <c r="S36" s="219"/>
-      <c r="T36" s="219"/>
-      <c r="U36" s="219"/>
-      <c r="V36" s="219"/>
-      <c r="W36" s="219"/>
-      <c r="X36" s="220"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="162"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="162"/>
+      <c r="V36" s="162"/>
+      <c r="W36" s="162"/>
+      <c r="X36" s="163"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="186" t="s">
+      <c r="A37" s="128" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -3954,31 +3966,31 @@
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="202"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="191"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="138"/>
       <c r="L37" s="6"/>
       <c r="M37" s="7"/>
-      <c r="N37" s="221" t="s">
+      <c r="N37" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="195"/>
-      <c r="P37" s="195"/>
-      <c r="Q37" s="195"/>
-      <c r="R37" s="222"/>
-      <c r="S37" s="223" t="s">
+      <c r="O37" s="148"/>
+      <c r="P37" s="148"/>
+      <c r="Q37" s="148"/>
+      <c r="R37" s="149"/>
+      <c r="S37" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="T37" s="223"/>
-      <c r="U37" s="223"/>
-      <c r="V37" s="223"/>
-      <c r="W37" s="223"/>
-      <c r="X37" s="224"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="112"/>
+      <c r="W37" s="112"/>
+      <c r="X37" s="150"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="13" t="s">
         <v>76</v>
       </c>
@@ -3986,31 +3998,31 @@
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="191"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="135"/>
+      <c r="I38" s="135"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="138"/>
       <c r="L38" s="6"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="225" t="s">
+      <c r="N38" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="137"/>
-      <c r="P38" s="137"/>
-      <c r="Q38" s="137"/>
-      <c r="R38" s="226"/>
-      <c r="S38" s="197" t="s">
+      <c r="O38" s="135"/>
+      <c r="P38" s="135"/>
+      <c r="Q38" s="135"/>
+      <c r="R38" s="152"/>
+      <c r="S38" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="T38" s="197"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="197"/>
-      <c r="W38" s="197"/>
-      <c r="X38" s="227"/>
+      <c r="T38" s="153"/>
+      <c r="U38" s="153"/>
+      <c r="V38" s="153"/>
+      <c r="W38" s="153"/>
+      <c r="X38" s="154"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="186" t="s">
+      <c r="A39" s="128" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -4020,31 +4032,31 @@
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
-      <c r="K39" s="191"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="138"/>
       <c r="L39" s="6"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="228" t="s">
+      <c r="N39" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="O39" s="229"/>
-      <c r="P39" s="229"/>
-      <c r="Q39" s="229"/>
-      <c r="R39" s="230"/>
-      <c r="S39" s="231" t="s">
+      <c r="O39" s="140"/>
+      <c r="P39" s="140"/>
+      <c r="Q39" s="140"/>
+      <c r="R39" s="141"/>
+      <c r="S39" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="T39" s="231"/>
-      <c r="U39" s="231"/>
-      <c r="V39" s="231"/>
-      <c r="W39" s="231"/>
-      <c r="X39" s="232"/>
+      <c r="T39" s="142"/>
+      <c r="U39" s="142"/>
+      <c r="V39" s="142"/>
+      <c r="W39" s="142"/>
+      <c r="X39" s="143"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="186"/>
+      <c r="A40" s="128"/>
       <c r="B40" s="13" t="s">
         <v>76</v>
       </c>
@@ -4052,29 +4064,29 @@
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="233"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
       <c r="L40" s="51"/>
       <c r="M40" s="51"/>
-      <c r="N40" s="218" t="s">
+      <c r="N40" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="O40" s="234"/>
-      <c r="P40" s="234"/>
-      <c r="Q40" s="234"/>
-      <c r="R40" s="234"/>
-      <c r="S40" s="234"/>
-      <c r="T40" s="234"/>
-      <c r="U40" s="234"/>
-      <c r="V40" s="234"/>
-      <c r="W40" s="234"/>
-      <c r="X40" s="235"/>
+      <c r="O40" s="145"/>
+      <c r="P40" s="145"/>
+      <c r="Q40" s="145"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="145"/>
+      <c r="T40" s="145"/>
+      <c r="U40" s="145"/>
+      <c r="V40" s="145"/>
+      <c r="W40" s="145"/>
+      <c r="X40" s="146"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="128" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -4084,33 +4096,33 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="233"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="136"/>
       <c r="L41" s="51"/>
       <c r="M41" s="51"/>
-      <c r="N41" s="236" t="s">
+      <c r="N41" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="236"/>
-      <c r="P41" s="236" t="s">
+      <c r="O41" s="137"/>
+      <c r="P41" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="Q41" s="236"/>
-      <c r="R41" s="236"/>
-      <c r="S41" s="236"/>
-      <c r="T41" s="236" t="s">
+      <c r="Q41" s="137"/>
+      <c r="R41" s="137"/>
+      <c r="S41" s="137"/>
+      <c r="T41" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="U41" s="236"/>
-      <c r="V41" s="236"/>
-      <c r="W41" s="236"/>
-      <c r="X41" s="236"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="186"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="128"/>
       <c r="B42" s="13" t="s">
         <v>76</v>
       </c>
@@ -4118,173 +4130,171 @@
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="233"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="136"/>
       <c r="L42" s="51"/>
       <c r="M42" s="51"/>
-      <c r="N42" s="236"/>
-      <c r="O42" s="236"/>
-      <c r="P42" s="236"/>
-      <c r="Q42" s="236"/>
-      <c r="R42" s="236"/>
-      <c r="S42" s="236"/>
-      <c r="T42" s="236"/>
-      <c r="U42" s="236"/>
-      <c r="V42" s="236"/>
-      <c r="W42" s="236"/>
-      <c r="X42" s="236"/>
-    </row>
-    <row r="43" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="83" t="s">
+      <c r="N42" s="137"/>
+      <c r="O42" s="137"/>
+      <c r="P42" s="137"/>
+      <c r="Q42" s="137"/>
+      <c r="R42" s="137"/>
+      <c r="S42" s="137"/>
+      <c r="T42" s="137"/>
+      <c r="U42" s="137"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="137"/>
+      <c r="X42" s="137"/>
+    </row>
+    <row r="43" spans="1:24" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="263" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="264"/>
+      <c r="C43" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="D43" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="E43" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="F43" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="237"/>
-      <c r="K43" s="238"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="265"/>
+      <c r="K43" s="266"/>
       <c r="L43" s="51"/>
       <c r="M43" s="51"/>
-      <c r="N43" s="236"/>
-      <c r="O43" s="236"/>
-      <c r="P43" s="236"/>
-      <c r="Q43" s="236"/>
-      <c r="R43" s="236"/>
-      <c r="S43" s="236"/>
-      <c r="T43" s="236"/>
-      <c r="U43" s="236"/>
-      <c r="V43" s="236"/>
-      <c r="W43" s="236"/>
-      <c r="X43" s="236"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="239" t="s">
+      <c r="N43" s="137"/>
+      <c r="O43" s="137"/>
+      <c r="P43" s="137"/>
+      <c r="Q43" s="137"/>
+      <c r="R43" s="137"/>
+      <c r="S43" s="137"/>
+      <c r="T43" s="137"/>
+      <c r="U43" s="137"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="137"/>
+      <c r="X43" s="137"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="240"/>
-      <c r="C44" s="240"/>
-      <c r="D44" s="240"/>
-      <c r="E44" s="240"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="240"/>
-      <c r="K44" s="241"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="116"/>
       <c r="L44" s="51"/>
       <c r="M44" s="51"/>
-      <c r="N44" s="242" t="s">
+      <c r="N44" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="O44" s="242"/>
-      <c r="P44" s="243"/>
-      <c r="Q44" s="243"/>
-      <c r="R44" s="243"/>
-      <c r="S44" s="243"/>
-      <c r="T44" s="243"/>
-      <c r="U44" s="243"/>
-      <c r="V44" s="243"/>
-      <c r="W44" s="243"/>
-      <c r="X44" s="243"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
+      <c r="R44" s="118"/>
+      <c r="S44" s="118"/>
+      <c r="T44" s="118"/>
+      <c r="U44" s="118"/>
+      <c r="V44" s="118"/>
+      <c r="W44" s="118"/>
+      <c r="X44" s="118"/>
     </row>
     <row r="45" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="244" t="s">
+      <c r="A45" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="246" t="s">
+      <c r="B45" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="248" t="s">
+      <c r="C45" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="248"/>
-      <c r="E45" s="249"/>
-      <c r="F45" s="250" t="s">
+      <c r="D45" s="123"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="246"/>
-      <c r="H45" s="246" t="s">
+      <c r="G45" s="121"/>
+      <c r="H45" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="248" t="s">
+      <c r="I45" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="248"/>
-      <c r="K45" s="252"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="127"/>
       <c r="L45" s="51"/>
       <c r="M45" s="51"/>
-      <c r="N45" s="242"/>
-      <c r="O45" s="242"/>
-      <c r="P45" s="243"/>
-      <c r="Q45" s="243"/>
-      <c r="R45" s="243"/>
-      <c r="S45" s="243"/>
-      <c r="T45" s="243"/>
-      <c r="U45" s="243"/>
-      <c r="V45" s="243"/>
-      <c r="W45" s="243"/>
-      <c r="X45" s="243"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
+      <c r="R45" s="118"/>
+      <c r="S45" s="118"/>
+      <c r="T45" s="118"/>
+      <c r="U45" s="118"/>
+      <c r="V45" s="118"/>
+      <c r="W45" s="118"/>
+      <c r="X45" s="118"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
-      <c r="B46" s="247"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="87" t="s">
+      <c r="E46" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="251"/>
-      <c r="G46" s="247"/>
-      <c r="H46" s="247"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
       <c r="I46" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="88" t="s">
+      <c r="K46" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="242" t="s">
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="O46" s="242"/>
-      <c r="P46" s="243"/>
-      <c r="Q46" s="243"/>
-      <c r="R46" s="243"/>
-      <c r="S46" s="243"/>
-      <c r="T46" s="243"/>
-      <c r="U46" s="243"/>
-      <c r="V46" s="243"/>
-      <c r="W46" s="243"/>
-      <c r="X46" s="243"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="118"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="186" t="s">
+      <c r="A47" s="128" t="s">
         <v>107</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -4293,129 +4303,129 @@
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="253" t="s">
+      <c r="F47" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="175"/>
+      <c r="G47" s="131"/>
       <c r="H47" s="13" t="s">
         <v>61</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
-      <c r="K47" s="90"/>
-      <c r="N47" s="242"/>
-      <c r="O47" s="242"/>
-      <c r="P47" s="243"/>
-      <c r="Q47" s="243"/>
-      <c r="R47" s="243"/>
-      <c r="S47" s="243"/>
-      <c r="T47" s="243"/>
-      <c r="U47" s="243"/>
-      <c r="V47" s="243"/>
-      <c r="W47" s="243"/>
-      <c r="X47" s="243"/>
+      <c r="K47" s="87"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="118"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="186"/>
+      <c r="A48" s="128"/>
       <c r="B48" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="253"/>
-      <c r="G48" s="175"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="131"/>
       <c r="H48" s="13" t="s">
         <v>64</v>
       </c>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
-      <c r="K48" s="90"/>
+      <c r="K48" s="87"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="186"/>
+      <c r="A49" s="128"/>
       <c r="B49" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="253"/>
-      <c r="G49" s="175"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="131"/>
       <c r="H49" s="13" t="s">
         <v>109</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
-      <c r="K49" s="90"/>
+      <c r="K49" s="87"/>
       <c r="Q49" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="200"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="189"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="133"/>
       <c r="H50" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="93"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="90"/>
     </row>
     <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="254" t="s">
+      <c r="A51" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="255"/>
-      <c r="C51" s="258"/>
-      <c r="D51" s="258"/>
-      <c r="E51" s="260"/>
-      <c r="F51" s="254" t="s">
+      <c r="B51" s="103"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="G51" s="255"/>
-      <c r="H51" s="255"/>
-      <c r="I51" s="258"/>
-      <c r="J51" s="258"/>
-      <c r="K51" s="260"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="108"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
     </row>
     <row r="52" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="256"/>
-      <c r="B52" s="257"/>
-      <c r="C52" s="259"/>
-      <c r="D52" s="259"/>
-      <c r="E52" s="261"/>
-      <c r="F52" s="256"/>
-      <c r="G52" s="257"/>
-      <c r="H52" s="257"/>
-      <c r="I52" s="259"/>
-      <c r="J52" s="259"/>
-      <c r="K52" s="261"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="109"/>
       <c r="L52" s="51"/>
       <c r="M52" s="51"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="262" t="s">
+      <c r="A53" s="113" t="s">
         <v>114</v>
       </c>
       <c r="B53" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="95"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="92"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="262"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="13" t="s">
         <v>64</v>
       </c>
@@ -4424,157 +4434,357 @@
       <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="262"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="25"/>
-      <c r="G55" s="96" t="s">
+      <c r="G55" s="93" t="s">
         <v>1</v>
       </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="262"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="92"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="89"/>
     </row>
     <row r="57" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="254" t="s">
+      <c r="A57" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="255"/>
-      <c r="C57" s="255"/>
-      <c r="D57" s="258"/>
-      <c r="E57" s="260"/>
-      <c r="G57" s="267"/>
-      <c r="H57" s="150"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="108"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="111"/>
     </row>
     <row r="58" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="256"/>
-      <c r="B58" s="257"/>
-      <c r="C58" s="257"/>
-      <c r="D58" s="259"/>
-      <c r="E58" s="261"/>
-      <c r="G58" s="267"/>
-      <c r="H58" s="150"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="109"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="111"/>
     </row>
     <row r="59" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F59" s="263" t="s">
+      <c r="F59" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="263"/>
-      <c r="R59" s="97"/>
-      <c r="S59" s="150"/>
+      <c r="G59" s="98"/>
+      <c r="R59" s="94"/>
+      <c r="S59" s="111"/>
     </row>
     <row r="60" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H60" s="264" t="s">
+      <c r="H60" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="I60" s="264"/>
-      <c r="J60" s="264"/>
-      <c r="K60" s="264"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
-      <c r="P60" s="263" t="s">
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="P60" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="Q60" s="263"/>
-      <c r="R60" s="263"/>
-      <c r="S60" s="223"/>
+      <c r="Q60" s="98"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="112"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
     </row>
     <row r="61" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E61" s="263" t="s">
+      <c r="E61" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="263"/>
-      <c r="G61" s="263"/>
-      <c r="S61" s="264" t="s">
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="S61" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="T61" s="264"/>
-      <c r="U61" s="264"/>
-      <c r="V61" s="264"/>
+      <c r="T61" s="99"/>
+      <c r="U61" s="99"/>
+      <c r="V61" s="99"/>
     </row>
     <row r="62" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H62" s="265" t="s">
+      <c r="H62" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="I62" s="265"/>
-      <c r="J62" s="265"/>
-      <c r="K62" s="265"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="P62" s="263" t="s">
+      <c r="I62" s="100"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="97"/>
+      <c r="P62" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="Q62" s="263"/>
-      <c r="R62" s="263"/>
+      <c r="Q62" s="98"/>
+      <c r="R62" s="98"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S63" s="265" t="s">
+      <c r="S63" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="T63" s="265"/>
-      <c r="U63" s="265"/>
-      <c r="V63" s="265"/>
+      <c r="T63" s="100"/>
+      <c r="U63" s="100"/>
+      <c r="V63" s="100"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="266" t="s">
+      <c r="A64" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="266"/>
-      <c r="C64" s="266"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="266"/>
-      <c r="J64" s="266"/>
-      <c r="K64" s="266"/>
+      <c r="B64" s="101"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="101"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="101"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="10:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="J65" s="98" t="s">
+      <c r="J65" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="N65" s="266" t="s">
+      <c r="N65" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="O65" s="266"/>
-      <c r="P65" s="266"/>
-      <c r="Q65" s="266"/>
-      <c r="R65" s="266"/>
-      <c r="S65" s="266"/>
-      <c r="T65" s="266"/>
-      <c r="U65" s="266"/>
-      <c r="V65" s="266"/>
-      <c r="W65" s="266"/>
-      <c r="X65" s="266"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="101"/>
+      <c r="R65" s="101"/>
+      <c r="S65" s="101"/>
+      <c r="T65" s="101"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="101"/>
+      <c r="W65" s="101"/>
+      <c r="X65" s="101"/>
     </row>
     <row r="66" spans="10:24" x14ac:dyDescent="0.25">
-      <c r="V66" s="264" t="s">
+      <c r="V66" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="W66" s="264"/>
+      <c r="W66" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="218">
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="N3:X3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="N17:X17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="N22:X22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="N36:X36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:X39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="N40:X40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="N41:O43"/>
+    <mergeCell ref="P41:S43"/>
+    <mergeCell ref="T41:X43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="N44:O45"/>
+    <mergeCell ref="P44:S45"/>
+    <mergeCell ref="T44:X45"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="P46:S47"/>
+    <mergeCell ref="T46:X47"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="F47:G50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="E61:G61"/>
     <mergeCell ref="S61:V61"/>
     <mergeCell ref="H62:K62"/>
@@ -4593,205 +4803,6 @@
     <mergeCell ref="S59:S60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="P60:R60"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="N44:O45"/>
-    <mergeCell ref="P44:S45"/>
-    <mergeCell ref="T44:X45"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="P46:S47"/>
-    <mergeCell ref="T46:X47"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="F47:G50"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="N41:O43"/>
-    <mergeCell ref="P41:S43"/>
-    <mergeCell ref="T41:X43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N40:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="N36:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="N3:X3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToWidth="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
